--- a/testdata/JCPENNEY.xlsx
+++ b/testdata/JCPENNEY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisqhx3/automation/rulesBotGithubSyncVersion/omRules/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467E7765-BFF1-C94E-861E-B5270AE82B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BC276A-9188-0C4F-9797-888CE40E44B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35400" yWindow="-13520" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-24840" windowWidth="21600" windowHeight="37940" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Gold" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14421" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14424" uniqueCount="380">
   <si>
     <t>PARENT(Bill To, Fleet, Service Offering)</t>
   </si>
@@ -1256,7 +1256,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,6 +1285,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1340,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1465,6 +1471,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2121,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9A0DBF-D3B6-4958-A13F-97CF8D4A51F7}">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2135,7 +2142,7 @@
     <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,8 +2155,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>371</v>
       </c>
@@ -2159,8 +2169,11 @@
       <c r="C2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>371</v>
       </c>
@@ -2170,8 +2183,11 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>371</v>
       </c>
@@ -2181,8 +2197,11 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -2192,8 +2211,11 @@
       <c r="C5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -2203,8 +2225,11 @@
       <c r="C6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>372</v>
       </c>
@@ -2214,8 +2239,11 @@
       <c r="C7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -2225,8 +2253,11 @@
       <c r="C8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -2236,8 +2267,11 @@
       <c r="C9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -2247,8 +2281,11 @@
       <c r="C10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -2258,8 +2295,11 @@
       <c r="C11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -2269,8 +2309,11 @@
       <c r="C12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -2280,8 +2323,11 @@
       <c r="C13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -2291,8 +2337,11 @@
       <c r="C14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -2302,8 +2351,11 @@
       <c r="C15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -2313,8 +2365,11 @@
       <c r="C16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -2324,8 +2379,11 @@
       <c r="C17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -2335,8 +2393,11 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -2346,8 +2407,11 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -2357,8 +2421,11 @@
       <c r="C20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -2368,8 +2435,11 @@
       <c r="C21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -2379,8 +2449,11 @@
       <c r="C22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>372</v>
       </c>
@@ -2390,8 +2463,11 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>372</v>
       </c>
@@ -2401,8 +2477,11 @@
       <c r="C24" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -2412,8 +2491,11 @@
       <c r="C25" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -2423,8 +2505,11 @@
       <c r="C26" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>372</v>
       </c>
@@ -2434,8 +2519,11 @@
       <c r="C27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -2445,8 +2533,11 @@
       <c r="C28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -2456,8 +2547,11 @@
       <c r="C29" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>372</v>
       </c>
@@ -2467,8 +2561,11 @@
       <c r="C30" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>372</v>
       </c>
@@ -2478,8 +2575,11 @@
       <c r="C31" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>372</v>
       </c>
@@ -2489,8 +2589,11 @@
       <c r="C32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>372</v>
       </c>
@@ -2500,8 +2603,11 @@
       <c r="C33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>372</v>
       </c>
@@ -2511,8 +2617,11 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>372</v>
       </c>
@@ -2522,8 +2631,11 @@
       <c r="C35" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>372</v>
       </c>
@@ -2533,8 +2645,11 @@
       <c r="C36" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>372</v>
       </c>
@@ -2544,8 +2659,11 @@
       <c r="C37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>372</v>
       </c>
@@ -2555,8 +2673,11 @@
       <c r="C38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>372</v>
       </c>
@@ -2566,8 +2687,11 @@
       <c r="C39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>372</v>
       </c>
@@ -2577,8 +2701,11 @@
       <c r="C40" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -2588,8 +2715,11 @@
       <c r="C41" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>372</v>
       </c>
@@ -2599,8 +2729,11 @@
       <c r="C42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>372</v>
       </c>
@@ -2610,8 +2743,11 @@
       <c r="C43" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -2621,8 +2757,11 @@
       <c r="C44" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -2632,8 +2771,11 @@
       <c r="C45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -2643,8 +2785,11 @@
       <c r="C46" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>372</v>
       </c>
@@ -2654,8 +2799,11 @@
       <c r="C47" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>372</v>
       </c>
@@ -2665,8 +2813,11 @@
       <c r="C48" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -2676,8 +2827,11 @@
       <c r="C49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>372</v>
       </c>
@@ -2687,8 +2841,11 @@
       <c r="C50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -2698,8 +2855,11 @@
       <c r="C51" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>372</v>
       </c>
@@ -2709,8 +2869,11 @@
       <c r="C52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>372</v>
       </c>
@@ -2720,8 +2883,11 @@
       <c r="C53" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>372</v>
       </c>
@@ -2731,8 +2897,11 @@
       <c r="C54" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -2742,8 +2911,11 @@
       <c r="C55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -2753,8 +2925,11 @@
       <c r="C56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>372</v>
       </c>
@@ -2764,8 +2939,11 @@
       <c r="C57" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>372</v>
       </c>
@@ -2775,8 +2953,11 @@
       <c r="C58" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -2786,8 +2967,11 @@
       <c r="C59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>372</v>
       </c>
@@ -2797,8 +2981,11 @@
       <c r="C60" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>372</v>
       </c>
@@ -2808,8 +2995,11 @@
       <c r="C61" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>372</v>
       </c>
@@ -2819,8 +3009,11 @@
       <c r="C62" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>372</v>
       </c>
@@ -2830,8 +3023,11 @@
       <c r="C63" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>372</v>
       </c>
@@ -2841,8 +3037,11 @@
       <c r="C64" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>372</v>
       </c>
@@ -2852,8 +3051,11 @@
       <c r="C65" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>372</v>
       </c>
@@ -2863,8 +3065,11 @@
       <c r="C66" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>372</v>
       </c>
@@ -2874,8 +3079,11 @@
       <c r="C67" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>372</v>
       </c>
@@ -2885,8 +3093,11 @@
       <c r="C68" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>372</v>
       </c>
@@ -2896,8 +3107,11 @@
       <c r="C69" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>372</v>
       </c>
@@ -2907,8 +3121,11 @@
       <c r="C70" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>372</v>
       </c>
@@ -2918,8 +3135,11 @@
       <c r="C71" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -2929,8 +3149,11 @@
       <c r="C72" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -2940,8 +3163,11 @@
       <c r="C73" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>372</v>
       </c>
@@ -2951,8 +3177,11 @@
       <c r="C74" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>372</v>
       </c>
@@ -2962,8 +3191,11 @@
       <c r="C75" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>372</v>
       </c>
@@ -2973,8 +3205,11 @@
       <c r="C76" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>372</v>
       </c>
@@ -2984,8 +3219,11 @@
       <c r="C77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>372</v>
       </c>
@@ -2995,8 +3233,11 @@
       <c r="C78" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>372</v>
       </c>
@@ -3006,8 +3247,11 @@
       <c r="C79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>372</v>
       </c>
@@ -3017,8 +3261,11 @@
       <c r="C80" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>372</v>
       </c>
@@ -3028,8 +3275,11 @@
       <c r="C81" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>372</v>
       </c>
@@ -3039,8 +3289,11 @@
       <c r="C82" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>372</v>
       </c>
@@ -3050,8 +3303,11 @@
       <c r="C83" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>372</v>
       </c>
@@ -3061,8 +3317,11 @@
       <c r="C84" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>372</v>
       </c>
@@ -3072,8 +3331,11 @@
       <c r="C85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>372</v>
       </c>
@@ -3083,8 +3345,11 @@
       <c r="C86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>372</v>
       </c>
@@ -3094,8 +3359,11 @@
       <c r="C87" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>372</v>
       </c>
@@ -3105,8 +3373,11 @@
       <c r="C88" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>372</v>
       </c>
@@ -3116,8 +3387,11 @@
       <c r="C89" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>372</v>
       </c>
@@ -3127,8 +3401,11 @@
       <c r="C90" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>372</v>
       </c>
@@ -3138,8 +3415,11 @@
       <c r="C91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>372</v>
       </c>
@@ -3149,8 +3429,11 @@
       <c r="C92" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>372</v>
       </c>
@@ -3160,8 +3443,11 @@
       <c r="C93" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -3171,8 +3457,11 @@
       <c r="C94" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>372</v>
       </c>
@@ -3182,8 +3471,11 @@
       <c r="C95" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -3193,8 +3485,11 @@
       <c r="C96" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>372</v>
       </c>
@@ -3204,8 +3499,11 @@
       <c r="C97" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>372</v>
       </c>
@@ -3215,8 +3513,11 @@
       <c r="C98" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>372</v>
       </c>
@@ -3226,8 +3527,11 @@
       <c r="C99" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>372</v>
       </c>
@@ -3237,8 +3541,11 @@
       <c r="C100" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>372</v>
       </c>
@@ -3248,8 +3555,11 @@
       <c r="C101" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>372</v>
       </c>
@@ -3259,8 +3569,11 @@
       <c r="C102" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>372</v>
       </c>
@@ -3270,8 +3583,11 @@
       <c r="C103" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>372</v>
       </c>
@@ -3281,8 +3597,11 @@
       <c r="C104" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>372</v>
       </c>
@@ -3292,8 +3611,11 @@
       <c r="C105" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>372</v>
       </c>
@@ -3303,8 +3625,11 @@
       <c r="C106" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>372</v>
       </c>
@@ -3314,8 +3639,11 @@
       <c r="C107" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>372</v>
       </c>
@@ -3325,8 +3653,11 @@
       <c r="C108" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>372</v>
       </c>
@@ -3336,8 +3667,11 @@
       <c r="C109" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>372</v>
       </c>
@@ -3347,8 +3681,11 @@
       <c r="C110" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>372</v>
       </c>
@@ -3358,8 +3695,11 @@
       <c r="C111" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>372</v>
       </c>
@@ -3369,8 +3709,11 @@
       <c r="C112" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>372</v>
       </c>
@@ -3380,8 +3723,11 @@
       <c r="C113" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>372</v>
       </c>
@@ -3391,8 +3737,11 @@
       <c r="C114" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>372</v>
       </c>
@@ -3402,8 +3751,11 @@
       <c r="C115" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>372</v>
       </c>
@@ -3413,8 +3765,11 @@
       <c r="C116" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>372</v>
       </c>
@@ -3424,8 +3779,11 @@
       <c r="C117" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>372</v>
       </c>
@@ -3435,8 +3793,11 @@
       <c r="C118" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>372</v>
       </c>
@@ -3446,8 +3807,11 @@
       <c r="C119" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -3457,8 +3821,11 @@
       <c r="C120" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>372</v>
       </c>
@@ -3468,8 +3835,11 @@
       <c r="C121" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>372</v>
       </c>
@@ -3479,8 +3849,11 @@
       <c r="C122" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>372</v>
       </c>
@@ -3490,8 +3863,11 @@
       <c r="C123" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>372</v>
       </c>
@@ -3501,8 +3877,11 @@
       <c r="C124" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>372</v>
       </c>
@@ -3512,8 +3891,11 @@
       <c r="C125" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -3523,8 +3905,11 @@
       <c r="C126" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>372</v>
       </c>
@@ -3534,8 +3919,11 @@
       <c r="C127" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>372</v>
       </c>
@@ -3545,8 +3933,11 @@
       <c r="C128" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>372</v>
       </c>
@@ -3556,8 +3947,11 @@
       <c r="C129" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>372</v>
       </c>
@@ -3567,8 +3961,11 @@
       <c r="C130" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>372</v>
       </c>
@@ -3578,8 +3975,11 @@
       <c r="C131" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>372</v>
       </c>
@@ -3589,8 +3989,11 @@
       <c r="C132" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>372</v>
       </c>
@@ -3600,8 +4003,11 @@
       <c r="C133" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>372</v>
       </c>
@@ -3611,8 +4017,11 @@
       <c r="C134" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>373</v>
       </c>
@@ -3622,8 +4031,11 @@
       <c r="C135" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>373</v>
       </c>
@@ -3633,8 +4045,11 @@
       <c r="C136" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>373</v>
       </c>
@@ -3644,8 +4059,11 @@
       <c r="C137" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>373</v>
       </c>
@@ -3655,8 +4073,11 @@
       <c r="C138" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>373</v>
       </c>
@@ -3666,8 +4087,11 @@
       <c r="C139" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>373</v>
       </c>
@@ -3677,8 +4101,11 @@
       <c r="C140" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>373</v>
       </c>
@@ -3688,8 +4115,11 @@
       <c r="C141" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>373</v>
       </c>
@@ -3699,8 +4129,11 @@
       <c r="C142" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>373</v>
       </c>
@@ -3710,8 +4143,11 @@
       <c r="C143" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>373</v>
       </c>
@@ -3721,8 +4157,11 @@
       <c r="C144" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>373</v>
       </c>
@@ -3732,8 +4171,11 @@
       <c r="C145" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>373</v>
       </c>
@@ -3743,8 +4185,11 @@
       <c r="C146" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>373</v>
       </c>
@@ -3754,8 +4199,11 @@
       <c r="C147" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>373</v>
       </c>
@@ -3765,8 +4213,11 @@
       <c r="C148" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>373</v>
       </c>
@@ -3776,8 +4227,11 @@
       <c r="C149" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>373</v>
       </c>
@@ -3787,8 +4241,11 @@
       <c r="C150" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>373</v>
       </c>
@@ -3798,8 +4255,11 @@
       <c r="C151" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>373</v>
       </c>
@@ -3809,8 +4269,11 @@
       <c r="C152" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>373</v>
       </c>
@@ -3820,8 +4283,11 @@
       <c r="C153" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>373</v>
       </c>
@@ -3831,8 +4297,11 @@
       <c r="C154" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>373</v>
       </c>
@@ -3842,8 +4311,11 @@
       <c r="C155" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>373</v>
       </c>
@@ -3853,8 +4325,11 @@
       <c r="C156" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>373</v>
       </c>
@@ -3864,8 +4339,11 @@
       <c r="C157" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>373</v>
       </c>
@@ -3875,8 +4353,11 @@
       <c r="C158" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>373</v>
       </c>
@@ -3886,8 +4367,11 @@
       <c r="C159" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>373</v>
       </c>
@@ -3897,8 +4381,11 @@
       <c r="C160" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>373</v>
       </c>
@@ -3908,8 +4395,11 @@
       <c r="C161" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>373</v>
       </c>
@@ -3919,8 +4409,11 @@
       <c r="C162" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>373</v>
       </c>
@@ -3930,8 +4423,11 @@
       <c r="C163" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>373</v>
       </c>
@@ -3941,8 +4437,11 @@
       <c r="C164" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>373</v>
       </c>
@@ -3952,8 +4451,11 @@
       <c r="C165" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>373</v>
       </c>
@@ -3963,8 +4465,11 @@
       <c r="C166" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>373</v>
       </c>
@@ -3974,8 +4479,11 @@
       <c r="C167" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>373</v>
       </c>
@@ -3985,8 +4493,11 @@
       <c r="C168" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>373</v>
       </c>
@@ -3996,8 +4507,11 @@
       <c r="C169" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>373</v>
       </c>
@@ -4007,8 +4521,11 @@
       <c r="C170" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>373</v>
       </c>
@@ -4018,8 +4535,11 @@
       <c r="C171" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>373</v>
       </c>
@@ -4029,8 +4549,11 @@
       <c r="C172" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>373</v>
       </c>
@@ -4040,8 +4563,11 @@
       <c r="C173" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>373</v>
       </c>
@@ -4051,8 +4577,11 @@
       <c r="C174" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -4062,8 +4591,11 @@
       <c r="C175" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>373</v>
       </c>
@@ -4073,8 +4605,11 @@
       <c r="C176" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>373</v>
       </c>
@@ -4084,8 +4619,11 @@
       <c r="C177" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>373</v>
       </c>
@@ -4095,8 +4633,11 @@
       <c r="C178" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>373</v>
       </c>
@@ -4106,8 +4647,11 @@
       <c r="C179" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>373</v>
       </c>
@@ -4117,8 +4661,11 @@
       <c r="C180" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>373</v>
       </c>
@@ -4128,8 +4675,11 @@
       <c r="C181" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -4139,8 +4689,11 @@
       <c r="C182" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>373</v>
       </c>
@@ -4150,8 +4703,11 @@
       <c r="C183" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>373</v>
       </c>
@@ -4161,8 +4717,11 @@
       <c r="C184" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>373</v>
       </c>
@@ -4172,8 +4731,11 @@
       <c r="C185" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>373</v>
       </c>
@@ -4183,8 +4745,11 @@
       <c r="C186" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -4195,7 +4760,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -4206,7 +4771,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>373</v>
       </c>
@@ -4217,7 +4782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>373</v>
       </c>
@@ -4228,7 +4793,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -4239,7 +4804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>373</v>
       </c>
@@ -49705,7 +50270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3A0074-F503-401D-99FF-9C9286B795D4}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A90" workbookViewId="0">
       <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
@@ -51137,10 +51702,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD5D356-D6CF-488C-80C3-CA20FE9E43FF}">
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C227"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51151,7 +51716,7 @@
     <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51164,8 +51729,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -51175,8 +51743,11 @@
       <c r="C2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -51186,8 +51757,11 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -51197,8 +51771,11 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -51208,8 +51785,11 @@
       <c r="C5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -51219,8 +51799,11 @@
       <c r="C6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -51230,8 +51813,11 @@
       <c r="C7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -51241,8 +51827,11 @@
       <c r="C8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -51252,8 +51841,11 @@
       <c r="C9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -51263,8 +51855,11 @@
       <c r="C10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -51274,8 +51869,11 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -51285,8 +51883,11 @@
       <c r="C12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -51296,8 +51897,11 @@
       <c r="C13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -51307,8 +51911,11 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -51318,8 +51925,11 @@
       <c r="C15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -51329,8 +51939,11 @@
       <c r="C16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -51340,8 +51953,11 @@
       <c r="C17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -51351,8 +51967,11 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -51362,8 +51981,11 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -51373,8 +51995,11 @@
       <c r="C20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -51384,8 +52009,11 @@
       <c r="C21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -51395,8 +52023,11 @@
       <c r="C22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -51406,8 +52037,11 @@
       <c r="C23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -51417,8 +52051,11 @@
       <c r="C24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -51428,8 +52065,11 @@
       <c r="C25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -51439,8 +52079,11 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -51450,8 +52093,11 @@
       <c r="C27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -51461,8 +52107,11 @@
       <c r="C28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -51472,8 +52121,11 @@
       <c r="C29" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -51483,8 +52135,11 @@
       <c r="C30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -51494,8 +52149,11 @@
       <c r="C31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -51505,8 +52163,11 @@
       <c r="C32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -51516,8 +52177,11 @@
       <c r="C33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -51527,8 +52191,11 @@
       <c r="C34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -51538,8 +52205,11 @@
       <c r="C35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -51549,8 +52219,11 @@
       <c r="C36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -51560,8 +52233,11 @@
       <c r="C37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -51571,8 +52247,11 @@
       <c r="C38" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -51582,8 +52261,11 @@
       <c r="C39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -51593,8 +52275,11 @@
       <c r="C40" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -51604,8 +52289,11 @@
       <c r="C41" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -51615,8 +52303,11 @@
       <c r="C42" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -51626,8 +52317,11 @@
       <c r="C43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -51637,8 +52331,11 @@
       <c r="C44" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -51648,8 +52345,11 @@
       <c r="C45" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -51659,8 +52359,11 @@
       <c r="C46" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -51670,8 +52373,11 @@
       <c r="C47" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -51681,8 +52387,11 @@
       <c r="C48" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -51692,8 +52401,11 @@
       <c r="C49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -51703,8 +52415,11 @@
       <c r="C50" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -51714,8 +52429,11 @@
       <c r="C51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -51725,8 +52443,11 @@
       <c r="C52" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -51736,8 +52457,11 @@
       <c r="C53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -51747,8 +52471,11 @@
       <c r="C54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -51758,8 +52485,11 @@
       <c r="C55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -51769,8 +52499,11 @@
       <c r="C56" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -51780,8 +52513,11 @@
       <c r="C57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -51791,8 +52527,11 @@
       <c r="C58" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -51802,8 +52541,11 @@
       <c r="C59" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -51813,8 +52555,11 @@
       <c r="C60" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -51824,8 +52569,11 @@
       <c r="C61" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -51835,8 +52583,11 @@
       <c r="C62" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -51846,8 +52597,11 @@
       <c r="C63" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -51857,8 +52611,11 @@
       <c r="C64" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -51868,8 +52625,11 @@
       <c r="C65" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -51879,8 +52639,11 @@
       <c r="C66" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -51890,8 +52653,11 @@
       <c r="C67" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -51901,8 +52667,11 @@
       <c r="C68" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -51912,8 +52681,11 @@
       <c r="C69" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -51923,8 +52695,11 @@
       <c r="C70" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -51934,8 +52709,11 @@
       <c r="C71" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -51945,8 +52723,11 @@
       <c r="C72" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -51956,8 +52737,11 @@
       <c r="C73" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -51967,8 +52751,11 @@
       <c r="C74" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -51978,8 +52765,11 @@
       <c r="C75" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -51989,8 +52779,11 @@
       <c r="C76" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -52000,8 +52793,11 @@
       <c r="C77" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -52011,8 +52807,11 @@
       <c r="C78" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -52022,8 +52821,11 @@
       <c r="C79" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -52033,8 +52835,11 @@
       <c r="C80" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -52044,8 +52849,11 @@
       <c r="C81" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -52055,8 +52863,11 @@
       <c r="C82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -52066,8 +52877,11 @@
       <c r="C83" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -52077,8 +52891,11 @@
       <c r="C84" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -52088,8 +52905,11 @@
       <c r="C85" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -52099,8 +52919,11 @@
       <c r="C86" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -52110,8 +52933,11 @@
       <c r="C87" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -52121,8 +52947,11 @@
       <c r="C88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -52132,8 +52961,11 @@
       <c r="C89" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -52143,8 +52975,11 @@
       <c r="C90" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -52154,8 +52989,11 @@
       <c r="C91" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -52165,8 +53003,11 @@
       <c r="C92" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -52176,8 +53017,11 @@
       <c r="C93" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -52187,8 +53031,11 @@
       <c r="C94" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -52198,8 +53045,11 @@
       <c r="C95" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>38</v>
       </c>
@@ -53666,7 +54516,7 @@
   <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B159"/>
+      <selection activeCell="B34" sqref="A2:B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54966,10 +55816,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE3A4F6-E111-4EA8-A213-0D498317BBEB}">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54980,7 +55830,7 @@
     <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -54993,8 +55843,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -55004,8 +55857,11 @@
       <c r="C2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -55015,8 +55871,11 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -55026,8 +55885,11 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -55037,8 +55899,11 @@
       <c r="C5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -55048,8 +55913,11 @@
       <c r="C6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -55059,8 +55927,11 @@
       <c r="C7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -55070,8 +55941,11 @@
       <c r="C8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -55081,8 +55955,11 @@
       <c r="C9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -55092,8 +55969,11 @@
       <c r="C10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -55103,8 +55983,11 @@
       <c r="C11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -55114,8 +55997,11 @@
       <c r="C12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -55125,8 +56011,11 @@
       <c r="C13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -55136,8 +56025,11 @@
       <c r="C14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -55147,8 +56039,11 @@
       <c r="C15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -55158,8 +56053,11 @@
       <c r="C16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -55169,8 +56067,11 @@
       <c r="C17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -55180,8 +56081,11 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -55191,8 +56095,11 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -55202,8 +56109,11 @@
       <c r="C20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -55213,8 +56123,11 @@
       <c r="C21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -55224,8 +56137,11 @@
       <c r="C22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -55235,8 +56151,11 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -55246,8 +56165,11 @@
       <c r="C24" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -55257,8 +56179,11 @@
       <c r="C25" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -55268,8 +56193,11 @@
       <c r="C26" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -55279,8 +56207,11 @@
       <c r="C27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -55290,8 +56221,11 @@
       <c r="C28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -55301,8 +56235,11 @@
       <c r="C29" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -55312,8 +56249,11 @@
       <c r="C30" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -55323,8 +56263,11 @@
       <c r="C31" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -55334,8 +56277,11 @@
       <c r="C32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -55345,8 +56291,11 @@
       <c r="C33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -55356,8 +56305,11 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -55367,8 +56319,11 @@
       <c r="C35" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -55378,8 +56333,11 @@
       <c r="C36" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -55389,8 +56347,11 @@
       <c r="C37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -55400,8 +56361,11 @@
       <c r="C38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -55411,8 +56375,11 @@
       <c r="C39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -55422,8 +56389,11 @@
       <c r="C40" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -55433,8 +56403,11 @@
       <c r="C41" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -55444,8 +56417,11 @@
       <c r="C42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -55455,8 +56431,11 @@
       <c r="C43" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -55466,8 +56445,11 @@
       <c r="C44" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -55477,8 +56459,11 @@
       <c r="C45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -55488,8 +56473,11 @@
       <c r="C46" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -55499,8 +56487,11 @@
       <c r="C47" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -55510,8 +56501,11 @@
       <c r="C48" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -55521,8 +56515,11 @@
       <c r="C49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -55532,8 +56529,11 @@
       <c r="C50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -55543,8 +56543,11 @@
       <c r="C51" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -55554,8 +56557,11 @@
       <c r="C52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -55565,8 +56571,11 @@
       <c r="C53" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -55576,8 +56585,11 @@
       <c r="C54" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -55587,8 +56599,11 @@
       <c r="C55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -55598,8 +56613,11 @@
       <c r="C56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -55609,8 +56627,11 @@
       <c r="C57" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -55620,8 +56641,11 @@
       <c r="C58" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -55631,8 +56655,11 @@
       <c r="C59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -55642,8 +56669,11 @@
       <c r="C60" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -55653,8 +56683,11 @@
       <c r="C61" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -55664,8 +56697,11 @@
       <c r="C62" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -55675,8 +56711,11 @@
       <c r="C63" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -55686,8 +56725,11 @@
       <c r="C64" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -55697,8 +56739,11 @@
       <c r="C65" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -55708,8 +56753,11 @@
       <c r="C66" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -55719,8 +56767,11 @@
       <c r="C67" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -55730,8 +56781,11 @@
       <c r="C68" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -55741,8 +56795,11 @@
       <c r="C69" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -55752,8 +56809,11 @@
       <c r="C70" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -55763,8 +56823,11 @@
       <c r="C71" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -55774,8 +56837,11 @@
       <c r="C72" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -55785,8 +56851,11 @@
       <c r="C73" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -55796,8 +56865,11 @@
       <c r="C74" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -55807,8 +56879,11 @@
       <c r="C75" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -55818,8 +56893,11 @@
       <c r="C76" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -55829,8 +56907,11 @@
       <c r="C77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -55840,8 +56921,11 @@
       <c r="C78" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -55851,8 +56935,11 @@
       <c r="C79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -55862,8 +56949,11 @@
       <c r="C80" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>50</v>
       </c>
@@ -55873,8 +56963,11 @@
       <c r="C81" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -55884,8 +56977,11 @@
       <c r="C82" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -55895,8 +56991,11 @@
       <c r="C83" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>50</v>
       </c>
@@ -55906,8 +57005,11 @@
       <c r="C84" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -55917,8 +57019,11 @@
       <c r="C85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>50</v>
       </c>
@@ -55928,8 +57033,11 @@
       <c r="C86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>50</v>
       </c>
@@ -55939,8 +57047,11 @@
       <c r="C87" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>50</v>
       </c>
@@ -55950,8 +57061,11 @@
       <c r="C88" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>50</v>
       </c>
@@ -55961,8 +57075,11 @@
       <c r="C89" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>50</v>
       </c>
@@ -55972,8 +57089,11 @@
       <c r="C90" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -55983,8 +57103,11 @@
       <c r="C91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -55994,8 +57117,11 @@
       <c r="C92" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -56005,8 +57131,11 @@
       <c r="C93" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -56016,8 +57145,11 @@
       <c r="C94" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>50</v>
       </c>
@@ -56027,8 +57159,11 @@
       <c r="C95" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -56038,8 +57173,11 @@
       <c r="C96" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -56049,8 +57187,11 @@
       <c r="C97" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -56060,8 +57201,11 @@
       <c r="C98" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -56071,8 +57215,11 @@
       <c r="C99" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>50</v>
       </c>
@@ -56082,8 +57229,11 @@
       <c r="C100" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -56093,8 +57243,11 @@
       <c r="C101" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -56104,8 +57257,11 @@
       <c r="C102" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>50</v>
       </c>
@@ -56115,8 +57271,11 @@
       <c r="C103" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -56126,8 +57285,11 @@
       <c r="C104" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>50</v>
       </c>
@@ -56137,8 +57299,11 @@
       <c r="C105" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -56148,8 +57313,11 @@
       <c r="C106" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>50</v>
       </c>
@@ -56159,8 +57327,11 @@
       <c r="C107" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>50</v>
       </c>
@@ -56170,8 +57341,11 @@
       <c r="C108" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -56181,8 +57355,11 @@
       <c r="C109" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -56192,8 +57369,11 @@
       <c r="C110" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>50</v>
       </c>
@@ -56203,8 +57383,11 @@
       <c r="C111" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>50</v>
       </c>
@@ -56214,8 +57397,11 @@
       <c r="C112" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>50</v>
       </c>
@@ -56225,8 +57411,11 @@
       <c r="C113" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>50</v>
       </c>
@@ -56236,8 +57425,11 @@
       <c r="C114" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>50</v>
       </c>
@@ -56247,8 +57439,11 @@
       <c r="C115" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>50</v>
       </c>
@@ -56258,8 +57453,11 @@
       <c r="C116" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>50</v>
       </c>
@@ -56269,8 +57467,11 @@
       <c r="C117" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>50</v>
       </c>
@@ -56280,8 +57481,11 @@
       <c r="C118" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>50</v>
       </c>
@@ -56291,8 +57495,11 @@
       <c r="C119" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>50</v>
       </c>
@@ -56302,8 +57509,11 @@
       <c r="C120" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>50</v>
       </c>
@@ -56313,19 +57523,22 @@
       <c r="C121" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>50</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="50" t="s">
         <v>207</v>
       </c>
       <c r="C122" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>50</v>
       </c>
@@ -56335,8 +57548,11 @@
       <c r="C123" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>50</v>
       </c>
@@ -56346,8 +57562,11 @@
       <c r="C124" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -56357,8 +57576,11 @@
       <c r="C125" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>50</v>
       </c>
@@ -56368,8 +57590,11 @@
       <c r="C126" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>50</v>
       </c>
@@ -56379,8 +57604,11 @@
       <c r="C127" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>50</v>
       </c>
@@ -56390,8 +57618,11 @@
       <c r="C128" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>50</v>
       </c>
@@ -56401,8 +57632,11 @@
       <c r="C129" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>50</v>
       </c>
@@ -56412,8 +57646,11 @@
       <c r="C130" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>50</v>
       </c>
@@ -56423,8 +57660,11 @@
       <c r="C131" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>50</v>
       </c>
@@ -56434,8 +57674,11 @@
       <c r="C132" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -56445,8 +57688,11 @@
       <c r="C133" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>50</v>
       </c>
@@ -56456,8 +57702,11 @@
       <c r="C134" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -56467,8 +57716,11 @@
       <c r="C135" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -56478,8 +57730,11 @@
       <c r="C136" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -56489,8 +57744,11 @@
       <c r="C137" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -56500,8 +57758,11 @@
       <c r="C138" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -56511,8 +57772,11 @@
       <c r="C139" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -56522,8 +57786,11 @@
       <c r="C140" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -56533,8 +57800,11 @@
       <c r="C141" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -56544,8 +57814,11 @@
       <c r="C142" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -56555,8 +57828,11 @@
       <c r="C143" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -56566,8 +57842,11 @@
       <c r="C144" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -56577,8 +57856,11 @@
       <c r="C145" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -56588,8 +57870,11 @@
       <c r="C146" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -56599,8 +57884,11 @@
       <c r="C147" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -56610,8 +57898,11 @@
       <c r="C148" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -56621,8 +57912,11 @@
       <c r="C149" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -56632,8 +57926,11 @@
       <c r="C150" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -56643,8 +57940,11 @@
       <c r="C151" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -56654,8 +57954,11 @@
       <c r="C152" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -56665,8 +57968,11 @@
       <c r="C153" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>99</v>
       </c>
@@ -56676,8 +57982,11 @@
       <c r="C154" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -56687,8 +57996,11 @@
       <c r="C155" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -56698,8 +58010,11 @@
       <c r="C156" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -56709,8 +58024,11 @@
       <c r="C157" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>99</v>
       </c>
@@ -56720,8 +58038,11 @@
       <c r="C158" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>99</v>
       </c>
@@ -56731,8 +58052,11 @@
       <c r="C159" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>99</v>
       </c>
@@ -56742,8 +58066,11 @@
       <c r="C160" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>99</v>
       </c>
@@ -56753,8 +58080,11 @@
       <c r="C161" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>99</v>
       </c>
@@ -56764,8 +58094,11 @@
       <c r="C162" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>99</v>
       </c>
@@ -56775,8 +58108,11 @@
       <c r="C163" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>99</v>
       </c>
@@ -56786,8 +58122,11 @@
       <c r="C164" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>99</v>
       </c>
@@ -56797,8 +58136,11 @@
       <c r="C165" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>99</v>
       </c>
@@ -56808,8 +58150,11 @@
       <c r="C166" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>99</v>
       </c>
@@ -56819,8 +58164,11 @@
       <c r="C167" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>99</v>
       </c>
@@ -56830,8 +58178,11 @@
       <c r="C168" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>99</v>
       </c>
@@ -56841,8 +58192,11 @@
       <c r="C169" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>99</v>
       </c>
@@ -56852,8 +58206,11 @@
       <c r="C170" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>99</v>
       </c>
@@ -56863,8 +58220,11 @@
       <c r="C171" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>99</v>
       </c>
@@ -56874,19 +58234,22 @@
       <c r="C172" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>99</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="50" t="s">
         <v>283</v>
       </c>
       <c r="C173" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>99</v>
       </c>
@@ -56896,8 +58259,11 @@
       <c r="C174" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>99</v>
       </c>
@@ -56907,8 +58273,11 @@
       <c r="C175" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>99</v>
       </c>
@@ -56917,6 +58286,9 @@
       </c>
       <c r="C176" t="s">
         <v>55</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
